--- a/Supporting Documents/correlation_matrices_125.xlsx
+++ b/Supporting Documents/correlation_matrices_125.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnicn\local_documents\lighthouse-data-notes\Midterm Project\LHL_MidTermProject\Supporting Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{27CFB753-D9E0-4FE6-9D33-155A454B6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3158A989-F078-4DD9-9F8E-2B1B1442AD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_corr" sheetId="1" r:id="rId1"/>
     <sheet name="delay_to_delay_corr" sheetId="5" r:id="rId2"/>
-    <sheet name="delay_to_features_corr" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="delay_to_features_corr" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">delay_to_features_corr!$A$2:$I$2</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="126">
   <si>
     <t>Different Marketer &amp; Operator Carrier Code</t>
   </si>
@@ -389,12 +393,27 @@
   <si>
     <t>Airport Type_destination2_small_airport</t>
   </si>
+  <si>
+    <t>Left on Time</t>
+  </si>
+  <si>
+    <t>Left Late</t>
+  </si>
+  <si>
+    <t>Average Speed (miles/minute)</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +544,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -871,11 +898,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -922,105 +953,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color auto="1"/>
@@ -1328,6 +1261,902 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Speed (miles/minute)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Left on Time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Left Late</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.5938889999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7767470000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82C5-48F6-B2E2-93D83FA03861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="35"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1215299567"/>
+        <c:axId val="1424468655"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1215299567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1424468655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1424468655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1215299567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44D24B6-D218-AC78-7524-91BC6E94011C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1624,7 +2453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DT124"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -47784,314 +48613,6 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:DT124">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="lessThan">
-      <formula>-0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThan">
-      <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="lessThan">
-      <formula>-0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="lessThan">
-      <formula>-0.4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="greaterThan">
-      <formula>0.4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="lessThan">
-      <formula>-0.3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="greaterThan">
-      <formula>0.3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="lessThan">
-      <formula>-0.2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="greaterThan">
-      <formula>0.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="C1">
-        <v>40</v>
-      </c>
-      <c r="D1">
-        <v>41</v>
-      </c>
-      <c r="E1">
-        <v>42</v>
-      </c>
-      <c r="F1">
-        <v>43</v>
-      </c>
-      <c r="G1">
-        <v>44</v>
-      </c>
-      <c r="H1">
-        <v>45</v>
-      </c>
-      <c r="I1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="43.2">
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.80463871854648605</v>
-      </c>
-      <c r="E3">
-        <v>0.39075780936652299</v>
-      </c>
-      <c r="F3">
-        <v>0.10628591676037499</v>
-      </c>
-      <c r="G3">
-        <v>-0.33856693008950201</v>
-      </c>
-      <c r="H3">
-        <v>9.3903182657983208E-3</v>
-      </c>
-      <c r="I3">
-        <v>0.600134151080297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4">
-        <v>0.80463871854648605</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.295995764037771</v>
-      </c>
-      <c r="F4">
-        <v>0.12969242993185801</v>
-      </c>
-      <c r="G4">
-        <v>0.20418514463677601</v>
-      </c>
-      <c r="H4">
-        <v>-8.47893765126741E-4</v>
-      </c>
-      <c r="I4">
-        <v>0.49405128658978897</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>0.39075780936652299</v>
-      </c>
-      <c r="D5">
-        <v>0.295995764037771</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>-9.60137419368291E-2</v>
-      </c>
-      <c r="G5">
-        <v>-0.30062796844247602</v>
-      </c>
-      <c r="H5">
-        <v>-2.2919506056170699E-2</v>
-      </c>
-      <c r="I5">
-        <v>-0.26322218624550803</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6">
-        <v>0.10628591676037499</v>
-      </c>
-      <c r="D6">
-        <v>0.12969242993185801</v>
-      </c>
-      <c r="E6">
-        <v>-9.60137419368291E-2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>-5.4451360281580999E-2</v>
-      </c>
-      <c r="H6">
-        <v>-6.9511139237153196E-3</v>
-      </c>
-      <c r="I6">
-        <v>-6.9931327283284397E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>-0.33856693008950201</v>
-      </c>
-      <c r="D7">
-        <v>0.20418514463677601</v>
-      </c>
-      <c r="E7">
-        <v>-0.30062796844247602</v>
-      </c>
-      <c r="F7">
-        <v>-5.4451360281580999E-2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>-1.9983625968463599E-2</v>
-      </c>
-      <c r="I7">
-        <v>-0.35939542490805698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>9.3903182657983208E-3</v>
-      </c>
-      <c r="D8">
-        <v>-8.47893765126741E-4</v>
-      </c>
-      <c r="E8">
-        <v>-2.2919506056170699E-2</v>
-      </c>
-      <c r="F8">
-        <v>-6.9511139237153196E-3</v>
-      </c>
-      <c r="G8">
-        <v>-1.9983625968463599E-2</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>-2.44780359040624E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <v>0.600134151080297</v>
-      </c>
-      <c r="D9">
-        <v>0.49405128658978897</v>
-      </c>
-      <c r="E9">
-        <v>-0.26322218624550803</v>
-      </c>
-      <c r="F9">
-        <v>-6.9931327283284397E-2</v>
-      </c>
-      <c r="G9">
-        <v>-0.35939542490805698</v>
-      </c>
-      <c r="H9">
-        <v>-2.44780359040624E-2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C3:I9">
     <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -48131,21 +48652,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I117"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M42" sqref="M42"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -48196,180 +48718,537 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>-5.7493668911225398E-2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>-4.8794608669413698E-3</v>
+        <v>0.80463871854648605</v>
       </c>
       <c r="E3">
-        <v>-4.1676177099374698E-2</v>
+        <v>0.39075780936652299</v>
       </c>
       <c r="F3">
-        <v>1.5877520105055599E-2</v>
+        <v>0.10628591676037499</v>
       </c>
       <c r="G3">
-        <v>3.6522121508404198E-2</v>
+        <v>-0.33856693008950201</v>
       </c>
       <c r="H3">
-        <v>-5.0935503635127499E-3</v>
+        <v>9.3903182657983208E-3</v>
       </c>
       <c r="I3">
-        <v>5.0448963005240502E-2</v>
+        <v>0.600134151080297</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>0.80463871854648605</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>-1.98494819469574E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.2404217916520402E-3</v>
-      </c>
       <c r="E4">
-        <v>-1.39025941429097E-2</v>
+        <v>0.295995764037771</v>
       </c>
       <c r="F4">
-        <v>8.2825835661422698E-3</v>
+        <v>0.12969242993185801</v>
       </c>
       <c r="G4">
-        <v>-1.8541913159975099E-2</v>
+        <v>0.20418514463677601</v>
       </c>
       <c r="H4">
-        <v>-1.7175187573929801E-3</v>
+        <v>-8.47893765126741E-4</v>
       </c>
       <c r="I4">
-        <v>6.1103429583742701E-2</v>
+        <v>0.49405128658978897</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>1.5874129286096801E-3</v>
+        <v>0.39075780936652299</v>
       </c>
       <c r="D5">
-        <v>-1.17755998959366E-2</v>
+        <v>0.295995764037771</v>
       </c>
       <c r="E5">
-        <v>7.19709456424103E-3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>-2.7084008479389401E-3</v>
+        <v>-9.60137419368291E-2</v>
       </c>
       <c r="G5">
-        <v>-1.08678743467701E-2</v>
+        <v>-0.30062796844247602</v>
       </c>
       <c r="H5">
-        <v>-4.7964491456740297E-4</v>
+        <v>-2.2919506056170699E-2</v>
       </c>
       <c r="I5">
-        <v>1.03201075106099E-2</v>
+        <v>-0.26322218624550803</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>-6.1052091734036E-3</v>
+        <v>0.10628591676037499</v>
       </c>
       <c r="D6">
-        <v>-1.69938511742736E-3</v>
+        <v>0.12969242993185801</v>
       </c>
       <c r="E6">
-        <v>7.6827784591934701E-3</v>
+        <v>-9.60137419368291E-2</v>
       </c>
       <c r="F6">
-        <v>-1.16727470181806E-2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>-3.2449134291424402E-3</v>
+        <v>-5.4451360281580999E-2</v>
       </c>
       <c r="H6">
-        <v>1.40731920569401E-3</v>
+        <v>-6.9511139237153196E-3</v>
       </c>
       <c r="I6">
-        <v>4.8240928378458104E-3</v>
+        <v>-6.9931327283284397E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>4.9744326293010301E-4</v>
+        <v>-0.33856693008950201</v>
       </c>
       <c r="D7">
-        <v>-2.0100527353339799E-3</v>
+        <v>0.20418514463677601</v>
       </c>
       <c r="E7">
-        <v>-1.1815324893524401E-2</v>
+        <v>-0.30062796844247602</v>
       </c>
       <c r="F7">
-        <v>6.3082819174325499E-3</v>
+        <v>-5.4451360281580999E-2</v>
       </c>
       <c r="G7">
-        <v>-8.6374738648071908E-3</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1.61746867073417E-3</v>
+        <v>-1.9983625968463599E-2</v>
       </c>
       <c r="I7">
-        <v>1.02537557815927E-2</v>
+        <v>-0.35939542490805698</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>-1.2889311948283599E-3</v>
+        <v>9.3903182657983208E-3</v>
       </c>
       <c r="D8">
-        <v>-8.0051957002123097E-3</v>
+        <v>-8.47893765126741E-4</v>
       </c>
       <c r="E8">
-        <v>1.22477459896297E-2</v>
+        <v>-2.2919506056170699E-2</v>
       </c>
       <c r="F8">
-        <v>2.1054999330007799E-4</v>
+        <v>-6.9511139237153196E-3</v>
       </c>
       <c r="G8">
-        <v>-1.1963208789373901E-2</v>
+        <v>-1.9983625968463599E-2</v>
       </c>
       <c r="H8">
-        <v>7.31741526484001E-3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>-9.7157259240908296E-3</v>
+        <v>-2.44780359040624E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>0.600134151080297</v>
+      </c>
+      <c r="D9">
+        <v>0.49405128658978897</v>
+      </c>
+      <c r="E9">
+        <v>-0.26322218624550803</v>
+      </c>
+      <c r="F9">
+        <v>-6.9931327283284397E-2</v>
+      </c>
+      <c r="G9">
+        <v>-0.35939542490805698</v>
+      </c>
+      <c r="H9">
+        <v>-2.44780359040624E-2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:I9">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
+      <formula>-0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
+      <formula>-0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
+      <formula>-0.4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+      <formula>0.4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
+      <formula>-0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="lessThan">
+      <formula>-0.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+      <formula>0.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73616E6-6BB2-42A4-A745-59870F68BD95}">
+  <dimension ref="A3:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6.5938889999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6.7767470000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P134" sqref="P134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="C1">
+        <v>40</v>
+      </c>
+      <c r="D1">
+        <v>41</v>
+      </c>
+      <c r="E1">
+        <v>42</v>
+      </c>
+      <c r="F1">
+        <v>43</v>
+      </c>
+      <c r="G1">
+        <v>44</v>
+      </c>
+      <c r="H1">
+        <v>45</v>
+      </c>
+      <c r="I1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="64.8" customHeight="1">
+      <c r="B2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-5.7493668911225398E-2</v>
+      </c>
+      <c r="D3">
+        <v>-4.8794608669413698E-3</v>
+      </c>
+      <c r="E3">
+        <v>-4.1676177099374698E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.5877520105055599E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.6522121508404198E-2</v>
+      </c>
+      <c r="H3">
+        <v>-5.0935503635127499E-3</v>
+      </c>
+      <c r="I3">
+        <v>5.0448963005240502E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>-1.98494819469574E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.2404217916520402E-3</v>
+      </c>
+      <c r="E4">
+        <v>-1.39025941429097E-2</v>
+      </c>
+      <c r="F4">
+        <v>8.2825835661422698E-3</v>
+      </c>
+      <c r="G4">
+        <v>-1.8541913159975099E-2</v>
+      </c>
+      <c r="H4">
+        <v>-1.7175187573929801E-3</v>
+      </c>
+      <c r="I4">
+        <v>6.1103429583742701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1.5874129286096801E-3</v>
+      </c>
+      <c r="D5">
+        <v>-1.17755998959366E-2</v>
+      </c>
+      <c r="E5">
+        <v>7.19709456424103E-3</v>
+      </c>
+      <c r="F5">
+        <v>-2.7084008479389401E-3</v>
+      </c>
+      <c r="G5">
+        <v>-1.08678743467701E-2</v>
+      </c>
+      <c r="H5">
+        <v>-4.7964491456740297E-4</v>
+      </c>
+      <c r="I5">
+        <v>1.03201075106099E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>-6.1052091734036E-3</v>
+      </c>
+      <c r="D6">
+        <v>-1.69938511742736E-3</v>
+      </c>
+      <c r="E6">
+        <v>7.6827784591934701E-3</v>
+      </c>
+      <c r="F6">
+        <v>-1.16727470181806E-2</v>
+      </c>
+      <c r="G6">
+        <v>-3.2449134291424402E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.40731920569401E-3</v>
+      </c>
+      <c r="I6">
+        <v>4.8240928378458104E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4.9744326293010301E-4</v>
+      </c>
+      <c r="D7">
+        <v>-2.0100527353339799E-3</v>
+      </c>
+      <c r="E7">
+        <v>-1.1815324893524401E-2</v>
+      </c>
+      <c r="F7">
+        <v>6.3082819174325499E-3</v>
+      </c>
+      <c r="G7">
+        <v>-8.6374738648071908E-3</v>
+      </c>
+      <c r="H7">
+        <v>1.61746867073417E-3</v>
+      </c>
+      <c r="I7">
+        <v>1.02537557815927E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>-1.2889311948283599E-3</v>
+      </c>
+      <c r="D8">
+        <v>-8.0051957002123097E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.22477459896297E-2</v>
+      </c>
+      <c r="F8">
+        <v>2.1054999330007799E-4</v>
+      </c>
+      <c r="G8">
+        <v>-1.1963208789373901E-2</v>
+      </c>
+      <c r="H8">
+        <v>7.31741526484001E-3</v>
+      </c>
+      <c r="I8">
+        <v>-9.7157259240908296E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1">
+      <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -48397,7 +49276,7 @@
         <v>-1.34712351051891E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10">
         <v>7</v>
       </c>
@@ -48426,7 +49305,7 @@
         <v>-3.0354765482154999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11">
         <v>8</v>
       </c>
@@ -48455,7 +49334,7 @@
         <v>-5.8969438161320699E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12">
         <v>9</v>
       </c>
@@ -48484,7 +49363,7 @@
         <v>-6.8055682241867005E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13">
         <v>10</v>
       </c>
@@ -48513,7 +49392,7 @@
         <v>-7.2057866243200097E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14">
         <v>11</v>
       </c>
@@ -48542,7 +49421,7 @@
         <v>-9.7605424899409099E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15">
         <v>12</v>
       </c>
@@ -48571,7 +49450,7 @@
         <v>-0.10088463950000701</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16">
         <v>13</v>
       </c>
@@ -48600,7 +49479,7 @@
         <v>-0.10426224196655599</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17">
         <v>14</v>
       </c>
@@ -48629,7 +49508,7 @@
         <v>-3.4548535150561603E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18">
         <v>15</v>
       </c>
@@ -48658,7 +49537,7 @@
         <v>-4.3278258510015002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19">
         <v>16</v>
       </c>
@@ -48687,7 +49566,7 @@
         <v>6.3155043346220394E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20">
         <v>17</v>
       </c>
@@ -48716,439 +49595,439 @@
         <v>-6.0685168775850201E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>7.5078672615189093E-2</v>
+        <v>-7.8934442480909306E-2</v>
       </c>
       <c r="D21">
-        <v>8.7055462039136305E-2</v>
+        <v>-6.2406351282615798E-2</v>
       </c>
       <c r="E21">
-        <v>6.1066637560273796E-3</v>
+        <v>4.0908086124349402E-2</v>
       </c>
       <c r="F21">
-        <v>9.1337193494834601E-2</v>
+        <v>-1.8428009381701801E-2</v>
       </c>
       <c r="G21">
-        <v>-2.3116519256926701E-4</v>
+        <v>1.3352395375151E-2</v>
       </c>
       <c r="H21">
-        <v>-9.3815133164441306E-3</v>
+        <v>3.50526760296287E-3</v>
       </c>
       <c r="I21">
-        <v>1.1782169033987801E-2</v>
+        <v>-8.1609276589017496E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>4.0094621106018503E-2</v>
+        <v>3.8028586005129698E-2</v>
       </c>
       <c r="D22">
-        <v>6.8666097968894294E-2</v>
+        <v>3.8149367452490902E-2</v>
       </c>
       <c r="E22">
-        <v>-3.1797394553305602E-2</v>
+        <v>3.2191237884160299E-3</v>
       </c>
       <c r="F22">
-        <v>4.7096682559156097E-2</v>
+        <v>-1.63024889740058E-2</v>
       </c>
       <c r="G22">
-        <v>5.7679198095890997E-2</v>
+        <v>1.27971320155535E-2</v>
       </c>
       <c r="H22">
-        <v>-6.9849789349020397E-3</v>
+        <v>-1.01770143252709E-2</v>
       </c>
       <c r="I22">
-        <v>-6.7035610497131496E-3</v>
+        <v>1.49536178262945E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>8.5847334150388095E-3</v>
+        <v>-3.2715662305328401E-2</v>
       </c>
       <c r="D23">
-        <v>1.7051849563545201E-2</v>
+        <v>-3.08382423698082E-2</v>
       </c>
       <c r="E23">
-        <v>2.98300771439809E-2</v>
+        <v>-0.10485279321449099</v>
       </c>
       <c r="F23">
-        <v>1.5710883753433699E-2</v>
+        <v>-1.5484727409888099E-2</v>
       </c>
       <c r="G23">
-        <v>-3.6184822230872202E-2</v>
+        <v>0.131027993511145</v>
       </c>
       <c r="H23">
-        <v>5.9819645542954604E-3</v>
+        <v>-1.1568363567928701E-2</v>
       </c>
       <c r="I23">
-        <v>2.6050702982543299E-2</v>
+        <v>-2.5132033449604501E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>-5.4848040650423901E-3</v>
+        <v>-2.5870466427503899E-2</v>
       </c>
       <c r="D24">
-        <v>-1.7138993779996201E-2</v>
+        <v>-2.1577940554624701E-2</v>
       </c>
       <c r="E24">
-        <v>-6.2185604461904203E-3</v>
+        <v>-0.106442273829484</v>
       </c>
       <c r="F24">
-        <v>8.0168774699089004E-3</v>
+        <v>-1.53915994758761E-2</v>
       </c>
       <c r="G24">
-        <v>5.3657917482072904E-3</v>
+        <v>0.13186844822632801</v>
       </c>
       <c r="H24">
-        <v>2.5938669150406099E-3</v>
+        <v>-1.31913621705092E-2</v>
       </c>
       <c r="I24">
-        <v>2.3515320214932598E-3</v>
+        <v>-1.7848538064568601E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C25">
-        <v>3.8028586005129698E-2</v>
+        <v>2.3196964816688901E-2</v>
       </c>
       <c r="D25">
-        <v>3.8149367452490902E-2</v>
+        <v>4.2772709357042901E-2</v>
       </c>
       <c r="E25">
-        <v>3.2191237884160299E-3</v>
+        <v>-4.6474200784507098E-2</v>
       </c>
       <c r="F25">
-        <v>-1.63024889740058E-2</v>
+        <v>-1.3365279228264099E-2</v>
       </c>
       <c r="G25">
-        <v>1.27971320155535E-2</v>
+        <v>0.100660847574125</v>
       </c>
       <c r="H25">
-        <v>-1.01770143252709E-2</v>
+        <v>-1.26933514427014E-2</v>
       </c>
       <c r="I25">
-        <v>1.49536178262945E-2</v>
+        <v>-1.26752785270174E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C26">
-        <v>1.7599407271561202E-2</v>
+        <v>4.5666202230718198E-2</v>
       </c>
       <c r="D26">
-        <v>3.8606703869667698E-2</v>
+        <v>7.6166877999805704E-2</v>
       </c>
       <c r="E26">
-        <v>-3.0045019210231502E-2</v>
+        <v>-4.94435477713185E-2</v>
       </c>
       <c r="F26">
-        <v>5.43928115337129E-2</v>
+        <v>-3.1768549441372898E-3</v>
       </c>
       <c r="G26">
-        <v>6.1052184468903398E-2</v>
+        <v>0.112320993296546</v>
       </c>
       <c r="H26">
-        <v>1.9336143962504001E-3</v>
+        <v>5.0209757628460203E-4</v>
       </c>
       <c r="I26">
-        <v>-5.8291331667933398E-3</v>
+        <v>-1.8409139726982101E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>5.0104408937022803E-2</v>
+        <v>3.2111858708209498E-2</v>
       </c>
       <c r="D27">
-        <v>7.1982129358240707E-2</v>
+        <v>4.7823222783946698E-2</v>
       </c>
       <c r="E27">
-        <v>-5.6381194558427397E-2</v>
+        <v>-3.0235050057169401E-3</v>
       </c>
       <c r="F27">
-        <v>5.6109531000872598E-2</v>
+        <v>-1.17408087391514E-3</v>
       </c>
       <c r="G27">
-        <v>6.1397929716433097E-2</v>
+        <v>-2.4868573605086398E-4</v>
       </c>
       <c r="H27">
-        <v>3.0117641462494701E-3</v>
+        <v>4.2548247297869999E-3</v>
       </c>
       <c r="I27">
-        <v>1.67619607558269E-2</v>
+        <v>3.0872154465419299E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C28">
-        <v>6.2760648582522297E-2</v>
+        <v>1.1675918036507599E-2</v>
       </c>
       <c r="D28">
-        <v>7.8405643141099698E-2</v>
+        <v>1.6567965920243601E-2</v>
       </c>
       <c r="E28">
-        <v>-2.7521768719974998E-2</v>
+        <v>-3.5739618878662102E-2</v>
       </c>
       <c r="F28">
-        <v>0.145483350636818</v>
+        <v>7.4264077775126197E-4</v>
       </c>
       <c r="G28">
-        <v>2.7529199487233001E-2</v>
+        <v>5.0042437462286198E-2</v>
       </c>
       <c r="H28">
-        <v>4.7968536868378897E-3</v>
+        <v>9.4955997502233006E-3</v>
       </c>
       <c r="I28">
-        <v>1.8312760524968601E-2</v>
+        <v>-7.7895357774218797E-3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>2.2596114542627398E-2</v>
+        <v>1.05306305774687E-2</v>
       </c>
       <c r="D29">
-        <v>2.70983681805664E-2</v>
+        <v>1.3251132294751101E-3</v>
       </c>
       <c r="E29">
-        <v>-1.7410636534461701E-2</v>
+        <v>-1.2469776303433201E-2</v>
       </c>
       <c r="F29">
-        <v>1.5674015808695201E-2</v>
+        <v>1.2838504720031299E-3</v>
       </c>
       <c r="G29">
-        <v>8.6311954977082092E-3</v>
+        <v>6.10834486476916E-2</v>
       </c>
       <c r="H29">
-        <v>1.15568974258526E-2</v>
+        <v>6.2490766759895101E-3</v>
       </c>
       <c r="I29">
-        <v>1.8065450406340399E-2</v>
+        <v>-3.52459484015092E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>-2.5870466427503899E-2</v>
+        <v>5.4345535043577302E-2</v>
       </c>
       <c r="D30">
-        <v>-2.1577940554624701E-2</v>
+        <v>9.1843809685417097E-2</v>
       </c>
       <c r="E30">
-        <v>-0.106442273829484</v>
+        <v>-3.2187753361038303E-2</v>
       </c>
       <c r="F30">
-        <v>-1.53915994758761E-2</v>
+        <v>2.8267762409946301E-3</v>
       </c>
       <c r="G30">
-        <v>0.13186844822632801</v>
+        <v>8.6492261895101993E-2</v>
       </c>
       <c r="H30">
-        <v>-1.31913621705092E-2</v>
+        <v>7.39646621991563E-3</v>
       </c>
       <c r="I30">
-        <v>-1.7848538064568601E-2</v>
+        <v>-2.4509239039699499E-3</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C31">
-        <v>-3.2715662305328401E-2</v>
+        <v>2.86458099115698E-2</v>
       </c>
       <c r="D31">
-        <v>-3.08382423698082E-2</v>
+        <v>4.0070723818991197E-2</v>
       </c>
       <c r="E31">
-        <v>-0.10485279321449099</v>
+        <v>-2.1787844721188301E-2</v>
       </c>
       <c r="F31">
-        <v>-1.5484727409888099E-2</v>
+        <v>4.5658045630876604E-3</v>
       </c>
       <c r="G31">
-        <v>0.131027993511145</v>
+        <v>3.2009895063986098E-2</v>
       </c>
       <c r="H31">
-        <v>-1.1568363567928701E-2</v>
+        <v>-6.1965105242743597E-3</v>
       </c>
       <c r="I31">
-        <v>-2.5132033449604501E-2</v>
+        <v>8.6110502910453305E-3</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>3.2111858708209498E-2</v>
+        <v>-5.4848040650423901E-3</v>
       </c>
       <c r="D32">
-        <v>4.7823222783946698E-2</v>
+        <v>-1.7138993779996201E-2</v>
       </c>
       <c r="E32">
-        <v>-3.0235050057169401E-3</v>
+        <v>-6.2185604461904203E-3</v>
       </c>
       <c r="F32">
-        <v>-1.17408087391514E-3</v>
+        <v>8.0168774699089004E-3</v>
       </c>
       <c r="G32">
-        <v>-2.4868573605086398E-4</v>
+        <v>5.3657917482072904E-3</v>
       </c>
       <c r="H32">
-        <v>4.2548247297869999E-3</v>
+        <v>2.5938669150406099E-3</v>
       </c>
       <c r="I32">
-        <v>3.0872154465419299E-2</v>
+        <v>2.3515320214932598E-3</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33">
-        <v>-7.8934442480909306E-2</v>
+        <v>2.2596114542627398E-2</v>
       </c>
       <c r="D33">
-        <v>-6.2406351282615798E-2</v>
+        <v>2.70983681805664E-2</v>
       </c>
       <c r="E33">
-        <v>4.0908086124349402E-2</v>
+        <v>-1.7410636534461701E-2</v>
       </c>
       <c r="F33">
-        <v>-1.8428009381701801E-2</v>
+        <v>1.5674015808695201E-2</v>
       </c>
       <c r="G33">
-        <v>1.3352395375151E-2</v>
+        <v>8.6311954977082092E-3</v>
       </c>
       <c r="H33">
-        <v>3.50526760296287E-3</v>
+        <v>1.15568974258526E-2</v>
       </c>
       <c r="I33">
-        <v>-8.1609276589017496E-2</v>
+        <v>1.8065450406340399E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>5.4345535043577302E-2</v>
+        <v>8.5847334150388095E-3</v>
       </c>
       <c r="D34">
-        <v>9.1843809685417097E-2</v>
+        <v>1.7051849563545201E-2</v>
       </c>
       <c r="E34">
-        <v>-3.2187753361038303E-2</v>
+        <v>2.98300771439809E-2</v>
       </c>
       <c r="F34">
-        <v>2.8267762409946301E-3</v>
+        <v>1.5710883753433699E-2</v>
       </c>
       <c r="G34">
-        <v>8.6492261895101993E-2</v>
+        <v>-3.6184822230872202E-2</v>
       </c>
       <c r="H34">
-        <v>7.39646621991563E-3</v>
+        <v>5.9819645542954604E-3</v>
       </c>
       <c r="I34">
-        <v>-2.4509239039699499E-3</v>
+        <v>2.6050702982543299E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C35">
-        <v>2.86458099115698E-2</v>
+        <v>2.3201326123141498E-2</v>
       </c>
       <c r="D35">
-        <v>4.0070723818991197E-2</v>
+        <v>4.9885477345922802E-2</v>
       </c>
       <c r="E35">
-        <v>-2.1787844721188301E-2</v>
+        <v>-3.0085675323145201E-2</v>
       </c>
       <c r="F35">
-        <v>4.5658045630876604E-3</v>
+        <v>1.6871703188250899E-2</v>
       </c>
       <c r="G35">
-        <v>3.2009895063986098E-2</v>
+        <v>7.96935329979164E-2</v>
       </c>
       <c r="H35">
-        <v>-6.1965105242743597E-3</v>
+        <v>-6.1681832353169199E-4</v>
       </c>
       <c r="I35">
-        <v>8.6110502910453305E-3</v>
+        <v>-1.7529357404719399E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -49182,991 +50061,991 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C37">
-        <v>1.05306305774687E-2</v>
+        <v>4.5825757589619098E-2</v>
       </c>
       <c r="D37">
-        <v>1.3251132294751101E-3</v>
+        <v>7.5830823397899497E-2</v>
       </c>
       <c r="E37">
-        <v>-1.2469776303433201E-2</v>
+        <v>-2.92405670667082E-2</v>
       </c>
       <c r="F37">
-        <v>1.2838504720031299E-3</v>
+        <v>3.0545038888491301E-2</v>
       </c>
       <c r="G37">
-        <v>6.10834486476916E-2</v>
+        <v>7.9067061328046695E-2</v>
       </c>
       <c r="H37">
-        <v>6.2490766759895101E-3</v>
+        <v>3.6319839793803898E-3</v>
       </c>
       <c r="I37">
-        <v>-3.52459484015092E-2</v>
+        <v>1.5942408392847201E-3</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>2.3196964816688901E-2</v>
+        <v>4.0094621106018503E-2</v>
       </c>
       <c r="D38">
-        <v>4.2772709357042901E-2</v>
+        <v>6.8666097968894294E-2</v>
       </c>
       <c r="E38">
-        <v>-4.6474200784507098E-2</v>
+        <v>-3.1797394553305602E-2</v>
       </c>
       <c r="F38">
-        <v>-1.3365279228264099E-2</v>
+        <v>4.7096682559156097E-2</v>
       </c>
       <c r="G38">
-        <v>0.100660847574125</v>
+        <v>5.7679198095890997E-2</v>
       </c>
       <c r="H38">
-        <v>-1.26933514427014E-2</v>
+        <v>-6.9849789349020397E-3</v>
       </c>
       <c r="I38">
-        <v>-1.26752785270174E-2</v>
+        <v>-6.7035610497131496E-3</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>2.3201326123141498E-2</v>
+        <v>1.7599407271561202E-2</v>
       </c>
       <c r="D39">
-        <v>4.9885477345922802E-2</v>
+        <v>3.8606703869667698E-2</v>
       </c>
       <c r="E39">
-        <v>-3.0085675323145201E-2</v>
+        <v>-3.0045019210231502E-2</v>
       </c>
       <c r="F39">
-        <v>1.6871703188250899E-2</v>
+        <v>5.43928115337129E-2</v>
       </c>
       <c r="G39">
-        <v>7.96935329979164E-2</v>
+        <v>6.1052184468903398E-2</v>
       </c>
       <c r="H39">
-        <v>-6.1681832353169199E-4</v>
+        <v>1.9336143962504001E-3</v>
       </c>
       <c r="I39">
-        <v>-1.7529357404719399E-2</v>
+        <v>-5.8291331667933398E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C40">
-        <v>4.5666202230718198E-2</v>
+        <v>5.0104408937022803E-2</v>
       </c>
       <c r="D40">
-        <v>7.6166877999805704E-2</v>
+        <v>7.1982129358240707E-2</v>
       </c>
       <c r="E40">
-        <v>-4.94435477713185E-2</v>
+        <v>-5.6381194558427397E-2</v>
       </c>
       <c r="F40">
-        <v>-3.1768549441372898E-3</v>
+        <v>5.6109531000872598E-2</v>
       </c>
       <c r="G40">
-        <v>0.112320993296546</v>
+        <v>6.1397929716433097E-2</v>
       </c>
       <c r="H40">
-        <v>5.0209757628460203E-4</v>
+        <v>3.0117641462494701E-3</v>
       </c>
       <c r="I40">
-        <v>-1.8409139726982101E-2</v>
+        <v>1.67619607558269E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C41">
-        <v>4.5825757589619098E-2</v>
+        <v>7.5078672615189093E-2</v>
       </c>
       <c r="D41">
-        <v>7.5830823397899497E-2</v>
+        <v>8.7055462039136305E-2</v>
       </c>
       <c r="E41">
-        <v>-2.92405670667082E-2</v>
+        <v>6.1066637560273796E-3</v>
       </c>
       <c r="F41">
-        <v>3.0545038888491301E-2</v>
+        <v>9.1337193494834601E-2</v>
       </c>
       <c r="G41">
-        <v>7.9067061328046695E-2</v>
+        <v>-2.3116519256926701E-4</v>
       </c>
       <c r="H41">
-        <v>3.6319839793803898E-3</v>
+        <v>-9.3815133164441306E-3</v>
       </c>
       <c r="I41">
-        <v>1.5942408392847201E-3</v>
+        <v>1.1782169033987801E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C42">
-        <v>1.1675918036507599E-2</v>
+        <v>6.2760648582522297E-2</v>
       </c>
       <c r="D42">
-        <v>1.6567965920243601E-2</v>
+        <v>7.8405643141099698E-2</v>
       </c>
       <c r="E42">
-        <v>-3.5739618878662102E-2</v>
+        <v>-2.7521768719974998E-2</v>
       </c>
       <c r="F42">
-        <v>7.4264077775126197E-4</v>
+        <v>0.145483350636818</v>
       </c>
       <c r="G42">
-        <v>5.0042437462286198E-2</v>
+        <v>2.7529199487233001E-2</v>
       </c>
       <c r="H42">
-        <v>9.4955997502233006E-3</v>
+        <v>4.7968536868378897E-3</v>
       </c>
       <c r="I42">
-        <v>-7.7895357774218797E-3</v>
+        <v>1.8312760524968601E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43">
+        <v>-3.4655072915471298E-2</v>
+      </c>
+      <c r="D43">
+        <v>-1.51230496398626E-2</v>
+      </c>
+      <c r="E43">
+        <v>-3.4854815042851303E-2</v>
+      </c>
+      <c r="F43">
+        <v>9.6665769294060708E-3</v>
+      </c>
+      <c r="G43">
+        <v>7.5475452319844604E-3</v>
+      </c>
+      <c r="H43">
+        <v>1.06902686571118E-2</v>
+      </c>
+      <c r="I43">
+        <v>3.5782306491209802E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1">
+      <c r="A44">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>-3.3476002761087698E-2</v>
+      </c>
+      <c r="D44">
+        <v>-1.17095910898445E-2</v>
+      </c>
+      <c r="E44">
+        <v>-2.9374517695713899E-2</v>
+      </c>
+      <c r="F44">
+        <v>-1.9734681468010901E-2</v>
+      </c>
+      <c r="G44">
+        <v>5.4033562984274003E-2</v>
+      </c>
+      <c r="H44">
+        <v>1.1766745721330601E-3</v>
+      </c>
+      <c r="I44">
+        <v>-3.2090845257553E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1">
+      <c r="A45">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45">
+        <v>-2.5861432889983799E-2</v>
+      </c>
+      <c r="D45">
+        <v>-1.13208705496458E-2</v>
+      </c>
+      <c r="E45">
+        <v>-4.5357192400008899E-2</v>
+      </c>
+      <c r="F45">
+        <v>-1.2521742233338099E-2</v>
+      </c>
+      <c r="G45">
+        <v>7.0691891601130694E-2</v>
+      </c>
+      <c r="H45">
+        <v>-6.6102660792071704E-3</v>
+      </c>
+      <c r="I45">
+        <v>-1.1549498821083099E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1">
+      <c r="A46">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>-2.4515883795127098E-2</v>
+      </c>
+      <c r="D46">
+        <v>6.9591815310474101E-3</v>
+      </c>
+      <c r="E46">
+        <v>6.1321089300902298E-2</v>
+      </c>
+      <c r="F46">
+        <v>1.16594063602914E-3</v>
+      </c>
+      <c r="G46">
+        <v>-5.8215834498845799E-2</v>
+      </c>
+      <c r="H46">
+        <v>-3.52859032271635E-3</v>
+      </c>
+      <c r="I46">
+        <v>-2.9987044460871599E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1">
+      <c r="A47">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <v>-1.7614605161369201E-2</v>
+      </c>
+      <c r="D47">
+        <v>-5.2747725990713798E-2</v>
+      </c>
+      <c r="E47">
+        <v>2.2473618985646201E-2</v>
+      </c>
+      <c r="F47">
+        <v>1.6338794303725999E-2</v>
+      </c>
+      <c r="G47">
+        <v>2.2175392350485299E-2</v>
+      </c>
+      <c r="H47">
+        <v>2.4195609030403199E-3</v>
+      </c>
+      <c r="I47">
+        <v>-6.07846435867756E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1">
+      <c r="A48">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48">
+        <v>-1.5956237294610199E-2</v>
+      </c>
+      <c r="D48">
+        <v>-9.6833638465187392E-3</v>
+      </c>
+      <c r="E48">
+        <v>1.20022707761004E-2</v>
+      </c>
+      <c r="F48">
+        <v>1.04524214788469E-2</v>
+      </c>
+      <c r="G48">
+        <v>-4.5866108698883598E-3</v>
+      </c>
+      <c r="H48">
+        <v>-4.6987826057115498E-3</v>
+      </c>
+      <c r="I48">
+        <v>8.1807320166997106E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B49" t="s">
         <v>47</v>
       </c>
-      <c r="C43">
+      <c r="C49">
         <v>-1.40657609129592E-2</v>
       </c>
-      <c r="D43">
+      <c r="D49">
         <v>-2.6864266422596799E-2</v>
       </c>
-      <c r="E43">
+      <c r="E49">
         <v>4.1239194767636704E-3</v>
       </c>
-      <c r="F43">
+      <c r="F49">
         <v>3.5194022773230101E-3</v>
       </c>
-      <c r="G43">
+      <c r="G49">
         <v>9.8834857434727495E-3</v>
       </c>
-      <c r="H43">
+      <c r="H49">
         <v>-7.1833930758500898E-3</v>
       </c>
-      <c r="I43">
+      <c r="I49">
         <v>1.2636927872882101E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
+    <row r="50" spans="1:9" hidden="1">
+      <c r="A50">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50">
+        <v>-1.2964740424934401E-2</v>
+      </c>
+      <c r="D50">
+        <v>-2.9631637954220498E-3</v>
+      </c>
+      <c r="E50">
+        <v>8.3932180183834901E-3</v>
+      </c>
+      <c r="F50">
+        <v>-8.2626376666250795E-3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>8.7120371941220098E-5</v>
+      </c>
+      <c r="H50">
+        <v>-3.3920425252328299E-3</v>
+      </c>
+      <c r="I50">
+        <v>6.7826992094749301E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1">
+      <c r="A51">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>-1.2006908758982899E-2</v>
+      </c>
+      <c r="D51">
+        <v>2.4458225472334602E-3</v>
+      </c>
+      <c r="E51">
+        <v>-2.4287247276867001E-3</v>
+      </c>
+      <c r="F51">
+        <v>-9.7759418852948303E-3</v>
+      </c>
+      <c r="G51">
+        <v>3.9613277219751199E-2</v>
+      </c>
+      <c r="H51">
+        <v>-6.1618719992318901E-3</v>
+      </c>
+      <c r="I51">
+        <v>-5.4735418377194903E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1">
+      <c r="A52">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <v>-1.13183895783398E-2</v>
+      </c>
+      <c r="D52">
+        <v>1.5657741010065201E-2</v>
+      </c>
+      <c r="E52">
+        <v>-3.3359347425839798E-2</v>
+      </c>
+      <c r="F52">
+        <v>2.4989362376893299E-2</v>
+      </c>
+      <c r="G52">
+        <v>1.0877834718348901E-2</v>
+      </c>
+      <c r="H52">
+        <v>-1.5991948344593399E-3</v>
+      </c>
+      <c r="I52">
+        <v>1.6384382274300498E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1">
+      <c r="A53">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <v>-1.02684697218952E-2</v>
+      </c>
+      <c r="D53">
+        <v>1.1187277318678201E-2</v>
+      </c>
+      <c r="E53">
+        <v>-1.3673017084273599E-2</v>
+      </c>
+      <c r="F53">
+        <v>-3.7579624832622602E-3</v>
+      </c>
+      <c r="G53">
+        <v>9.1815274758466608E-3</v>
+      </c>
+      <c r="H53">
+        <v>-5.0691933958589598E-3</v>
+      </c>
+      <c r="I53">
+        <v>-6.47145665260226E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1">
+      <c r="A54">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54">
+        <v>-1.02651273299449E-2</v>
+      </c>
+      <c r="D54">
+        <v>-1.07255152587107E-2</v>
+      </c>
+      <c r="E54">
+        <v>-2.7918572943005201E-2</v>
+      </c>
+      <c r="F54">
+        <v>-2.1470914610035399E-3</v>
+      </c>
+      <c r="G54">
+        <v>9.3654392751324603E-2</v>
+      </c>
+      <c r="H54">
+        <v>1.08337525049024E-2</v>
+      </c>
+      <c r="I54">
+        <v>-5.0391932973047802E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>-8.7688013557283197E-3</v>
+      </c>
+      <c r="D55">
+        <v>-1.0125939196997599E-2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>8.1944358940190098E-5</v>
+      </c>
+      <c r="F55">
+        <v>-2.2638300479612601E-3</v>
+      </c>
+      <c r="G55">
+        <v>1.4479568946042401E-3</v>
+      </c>
+      <c r="H55">
+        <v>-4.1350784948000797E-3</v>
+      </c>
+      <c r="I55">
+        <v>1.4600124965724401E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>-8.7603594636344508E-3</v>
+      </c>
+      <c r="D56">
+        <v>4.62742363966351E-3</v>
+      </c>
+      <c r="E56">
+        <v>5.8209783730734698E-3</v>
+      </c>
+      <c r="F56">
+        <v>-2.29811353215748E-3</v>
+      </c>
+      <c r="G56">
+        <v>-1.26109881210765E-2</v>
+      </c>
+      <c r="H56">
+        <v>-1.2549563186591401E-3</v>
+      </c>
+      <c r="I56">
+        <v>7.5601462893298598E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1">
+      <c r="A57">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57">
+        <v>-8.6546716217100906E-3</v>
+      </c>
+      <c r="D57">
+        <v>1.10780040044039E-2</v>
+      </c>
+      <c r="E57">
+        <v>1.8495781619987502E-2</v>
+      </c>
+      <c r="F57">
+        <v>1.16345811510991E-2</v>
+      </c>
+      <c r="G57">
+        <v>-1.8410127530481699E-2</v>
+      </c>
+      <c r="H57">
+        <v>4.3168335003167298E-3</v>
+      </c>
+      <c r="I57">
+        <v>-5.8327308319431198E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1">
+      <c r="A58">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>-8.0830663346130108E-3</v>
+      </c>
+      <c r="D58">
+        <v>-1.38660098787453E-3</v>
+      </c>
+      <c r="E58">
+        <v>-3.0662673241934699E-2</v>
+      </c>
+      <c r="F58">
+        <v>7.1659555695760199E-3</v>
+      </c>
+      <c r="G58">
+        <v>6.4961913089013099E-2</v>
+      </c>
+      <c r="H58">
+        <v>-1.25289842088286E-2</v>
+      </c>
+      <c r="I58">
+        <v>-2.26780269720398E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1">
+      <c r="A59">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59">
+        <v>-6.9238492123949603E-3</v>
+      </c>
+      <c r="D59">
+        <v>-3.1814610359365901E-3</v>
+      </c>
+      <c r="E59">
+        <v>-4.8449705073220199E-4</v>
+      </c>
+      <c r="F59">
+        <v>-6.5221895008750102E-3</v>
+      </c>
+      <c r="G59">
+        <v>-1.7338907251806101E-2</v>
+      </c>
+      <c r="H59">
+        <v>-4.5577931740861501E-3</v>
+      </c>
+      <c r="I59">
+        <v>1.9808011562675299E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1">
+      <c r="A60">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B60" t="s">
         <v>48</v>
       </c>
-      <c r="C44">
+      <c r="C60">
         <v>-6.7094818080490797E-3</v>
       </c>
-      <c r="D44">
+      <c r="D60">
         <v>-1.5541346745861801E-3</v>
       </c>
-      <c r="E44">
+      <c r="E60">
         <v>-3.9345098401607197E-3</v>
       </c>
-      <c r="F44">
+      <c r="F60">
         <v>-1.0841689578553501E-3</v>
       </c>
-      <c r="G44">
+      <c r="G60">
         <v>-2.7131910717187301E-3</v>
       </c>
-      <c r="H44">
+      <c r="H60">
         <v>-2.73736973562191E-4</v>
       </c>
-      <c r="I44">
+      <c r="I60">
         <v>3.4764673616527698E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
+    <row r="61" spans="1:9" hidden="1">
+      <c r="A61">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>-6.2978419691121397E-3</v>
+      </c>
+      <c r="D61">
+        <v>-5.7579925965794802E-3</v>
+      </c>
+      <c r="E61">
+        <v>-1.48571358910628E-2</v>
+      </c>
+      <c r="F61">
+        <v>-5.0874843789861998E-3</v>
+      </c>
+      <c r="G61">
+        <v>2.4129413465559999E-2</v>
+      </c>
+      <c r="H61">
+        <v>-1.28451618805192E-3</v>
+      </c>
+      <c r="I61">
+        <v>-9.2057647077117694E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62">
+        <v>-4.9502946989052003E-3</v>
+      </c>
+      <c r="D62">
+        <v>1.1546897994315301E-2</v>
+      </c>
+      <c r="E62">
+        <v>-1.3244052916392001E-3</v>
+      </c>
+      <c r="F62">
+        <v>1.2530244517384799E-2</v>
+      </c>
+      <c r="G62">
+        <v>-2.3808588794379401E-2</v>
+      </c>
+      <c r="H62">
+        <v>3.7112634409196602E-4</v>
+      </c>
+      <c r="I62">
+        <v>1.1924864386162699E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1">
+      <c r="A63">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63">
+        <v>-2.7887348851724099E-4</v>
+      </c>
+      <c r="D63">
+        <v>1.03247051015382E-2</v>
+      </c>
+      <c r="E63">
+        <v>1.7888666979236301E-2</v>
+      </c>
+      <c r="F63">
+        <v>-1.0090883433697399E-2</v>
+      </c>
+      <c r="G63">
+        <v>-9.1818257280543798E-4</v>
+      </c>
+      <c r="H63">
+        <v>-4.4643069387771302E-3</v>
+      </c>
+      <c r="I63">
+        <v>2.2181290995849399E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>5.9054770094680404E-4</v>
+      </c>
+      <c r="D64">
+        <v>5.0973620687711999E-3</v>
+      </c>
+      <c r="E64">
+        <v>-4.3182291859706502E-3</v>
+      </c>
+      <c r="F64">
+        <v>3.0292557773384101E-2</v>
+      </c>
+      <c r="G64">
+        <v>8.1828996033968104E-3</v>
+      </c>
+      <c r="H64">
+        <v>-7.2433273857774004E-4</v>
+      </c>
+      <c r="I64">
+        <v>-1.2134037169797199E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <v>4.4842983755661097E-3</v>
+      </c>
+      <c r="D65">
+        <v>1.36200556285518E-2</v>
+      </c>
+      <c r="E65">
+        <v>-3.5262189562203401E-3</v>
+      </c>
+      <c r="F65">
+        <v>2.0717451937277E-2</v>
+      </c>
+      <c r="G65">
+        <v>-3.28059506887678E-2</v>
+      </c>
+      <c r="H65">
+        <v>4.0170197520477601E-3</v>
+      </c>
+      <c r="I65">
+        <v>2.8325823247590101E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1">
+      <c r="A66">
+        <v>53</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66">
+        <v>1.5196617165818299E-2</v>
+      </c>
+      <c r="D66">
+        <v>2.1954230950975501E-2</v>
+      </c>
+      <c r="E66">
+        <v>3.8399825589344001E-3</v>
+      </c>
+      <c r="F66">
+        <v>-8.8324761743311699E-3</v>
+      </c>
+      <c r="G66">
+        <v>2.5788939546265099E-2</v>
+      </c>
+      <c r="H66">
+        <v>-4.1627024100995896E-3</v>
+      </c>
+      <c r="I66">
+        <v>5.3682628786458101E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1">
+      <c r="A67">
         <v>49</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B67" t="s">
         <v>49</v>
       </c>
-      <c r="C45">
+      <c r="C67">
         <v>1.5206857743767699E-2</v>
       </c>
-      <c r="D45">
+      <c r="D67">
         <v>1.19492073395092E-2</v>
       </c>
-      <c r="E45">
+      <c r="E67">
         <v>7.9009806922476101E-3</v>
       </c>
-      <c r="F45">
+      <c r="F67">
         <v>1.6500873502634902E-2</v>
       </c>
-      <c r="G45">
+      <c r="G67">
         <v>-1.35761349710222E-2</v>
       </c>
-      <c r="H45">
+      <c r="H67">
         <v>-2.01511006176719E-3</v>
       </c>
-      <c r="I45">
+      <c r="I67">
         <v>-1.9316100402687601E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46">
-        <v>-3.3476002761087698E-2</v>
-      </c>
-      <c r="D46">
-        <v>-1.17095910898445E-2</v>
-      </c>
-      <c r="E46">
-        <v>-2.9374517695713899E-2</v>
-      </c>
-      <c r="F46">
-        <v>-1.9734681468010901E-2</v>
-      </c>
-      <c r="G46">
-        <v>5.4033562984274003E-2</v>
-      </c>
-      <c r="H46">
-        <v>1.1766745721330601E-3</v>
-      </c>
-      <c r="I46">
-        <v>-3.2090845257553E-2</v>
+    <row r="68" spans="1:9" hidden="1">
+      <c r="A68">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68">
+        <v>1.9626410810865299E-2</v>
+      </c>
+      <c r="D68">
+        <v>1.28605400205809E-2</v>
+      </c>
+      <c r="E68">
+        <v>1.57747477586111E-2</v>
+      </c>
+      <c r="F68">
+        <v>-1.06084640679263E-2</v>
+      </c>
+      <c r="G68">
+        <v>7.5385774475637104E-3</v>
+      </c>
+      <c r="H68">
+        <v>-6.1236879826860801E-3</v>
+      </c>
+      <c r="I68">
+        <v>-3.4845092206127999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47">
-        <v>-2.7887348851724099E-4</v>
-      </c>
-      <c r="D47">
-        <v>1.03247051015382E-2</v>
-      </c>
-      <c r="E47">
-        <v>1.7888666979236301E-2</v>
-      </c>
-      <c r="F47">
-        <v>-1.0090883433697399E-2</v>
-      </c>
-      <c r="G47">
-        <v>-9.1818257280543798E-4</v>
-      </c>
-      <c r="H47">
-        <v>-4.4643069387771302E-3</v>
-      </c>
-      <c r="I47">
-        <v>2.2181290995849399E-2</v>
+    <row r="69" spans="1:9" hidden="1">
+      <c r="A69">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69">
+        <v>2.1456137628622699E-2</v>
+      </c>
+      <c r="D69">
+        <v>1.0905772059717E-2</v>
+      </c>
+      <c r="E69">
+        <v>3.3590834644300703E-2</v>
+      </c>
+      <c r="F69">
+        <v>-1.3132287876329401E-2</v>
+      </c>
+      <c r="G69">
+        <v>1.5545133963961999E-3</v>
+      </c>
+      <c r="H69">
+        <v>-3.1740587596391901E-3</v>
+      </c>
+      <c r="I69">
+        <v>-2.67775980627892E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48">
-        <v>52</v>
-      </c>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48">
-        <v>2.1456137628622699E-2</v>
-      </c>
-      <c r="D48">
-        <v>1.0905772059717E-2</v>
-      </c>
-      <c r="E48">
-        <v>3.3590834644300703E-2</v>
-      </c>
-      <c r="F48">
-        <v>-1.3132287876329401E-2</v>
-      </c>
-      <c r="G48">
-        <v>1.5545133963961999E-3</v>
-      </c>
-      <c r="H48">
-        <v>-3.1740587596391901E-3</v>
-      </c>
-      <c r="I48">
-        <v>-2.67775980627892E-3</v>
+    <row r="70" spans="1:9" hidden="1">
+      <c r="A70">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>9.3246207185297095E-2</v>
+      </c>
+      <c r="D70">
+        <v>3.84808244203248E-2</v>
+      </c>
+      <c r="E70">
+        <v>3.8272040987396803E-2</v>
+      </c>
+      <c r="F70">
+        <v>-3.44058280187622E-2</v>
+      </c>
+      <c r="G70">
+        <v>-0.14211151748586201</v>
+      </c>
+      <c r="H70">
+        <v>1.5423809240940899E-2</v>
+      </c>
+      <c r="I70">
+        <v>5.4370589483557198E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
-        <v>53</v>
-      </c>
-      <c r="B49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49">
-        <v>1.5196617165818299E-2</v>
-      </c>
-      <c r="D49">
-        <v>2.1954230950975501E-2</v>
-      </c>
-      <c r="E49">
-        <v>3.8399825589344001E-3</v>
-      </c>
-      <c r="F49">
-        <v>-8.8324761743311699E-3</v>
-      </c>
-      <c r="G49">
-        <v>2.5788939546265099E-2</v>
-      </c>
-      <c r="H49">
-        <v>-4.1627024100995896E-3</v>
-      </c>
-      <c r="I49">
-        <v>5.3682628786458101E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50">
-        <v>54</v>
-      </c>
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50">
-        <v>-6.9238492123949603E-3</v>
-      </c>
-      <c r="D50">
-        <v>-3.1814610359365901E-3</v>
-      </c>
-      <c r="E50">
-        <v>-4.8449705073220199E-4</v>
-      </c>
-      <c r="F50">
-        <v>-6.5221895008750102E-3</v>
-      </c>
-      <c r="G50">
-        <v>-1.7338907251806101E-2</v>
-      </c>
-      <c r="H50">
-        <v>-4.5577931740861501E-3</v>
-      </c>
-      <c r="I50">
-        <v>1.9808011562675299E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51">
-        <v>-1.7614605161369201E-2</v>
-      </c>
-      <c r="D51">
-        <v>-5.2747725990713798E-2</v>
-      </c>
-      <c r="E51">
-        <v>2.2473618985646201E-2</v>
-      </c>
-      <c r="F51">
-        <v>1.6338794303725999E-2</v>
-      </c>
-      <c r="G51">
-        <v>2.2175392350485299E-2</v>
-      </c>
-      <c r="H51">
-        <v>2.4195609030403199E-3</v>
-      </c>
-      <c r="I51">
-        <v>-6.07846435867756E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52">
-        <v>56</v>
-      </c>
-      <c r="B52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52">
-        <v>-8.7603594636344508E-3</v>
-      </c>
-      <c r="D52">
-        <v>4.62742363966351E-3</v>
-      </c>
-      <c r="E52">
-        <v>5.8209783730734698E-3</v>
-      </c>
-      <c r="F52">
-        <v>-2.29811353215748E-3</v>
-      </c>
-      <c r="G52">
-        <v>-1.26109881210765E-2</v>
-      </c>
-      <c r="H52">
-        <v>-1.2549563186591401E-3</v>
-      </c>
-      <c r="I52">
-        <v>7.5601462893298598E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53">
-        <v>57</v>
-      </c>
-      <c r="B53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53">
-        <v>-1.2006908758982899E-2</v>
-      </c>
-      <c r="D53">
-        <v>2.4458225472334602E-3</v>
-      </c>
-      <c r="E53">
-        <v>-2.4287247276867001E-3</v>
-      </c>
-      <c r="F53">
-        <v>-9.7759418852948303E-3</v>
-      </c>
-      <c r="G53">
-        <v>3.9613277219751199E-2</v>
-      </c>
-      <c r="H53">
-        <v>-6.1618719992318901E-3</v>
-      </c>
-      <c r="I53">
-        <v>-5.4735418377194903E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54">
-        <v>58</v>
-      </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54">
-        <v>1.9626410810865299E-2</v>
-      </c>
-      <c r="D54">
-        <v>1.28605400205809E-2</v>
-      </c>
-      <c r="E54">
-        <v>1.57747477586111E-2</v>
-      </c>
-      <c r="F54">
-        <v>-1.06084640679263E-2</v>
-      </c>
-      <c r="G54">
-        <v>7.5385774475637104E-3</v>
-      </c>
-      <c r="H54">
-        <v>-6.1236879826860801E-3</v>
-      </c>
-      <c r="I54">
-        <v>-3.4845092206127999E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55">
-        <v>59</v>
-      </c>
-      <c r="B55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55">
-        <v>-4.9502946989052003E-3</v>
-      </c>
-      <c r="D55">
-        <v>1.1546897994315301E-2</v>
-      </c>
-      <c r="E55">
-        <v>-1.3244052916392001E-3</v>
-      </c>
-      <c r="F55">
-        <v>1.2530244517384799E-2</v>
-      </c>
-      <c r="G55">
-        <v>-2.3808588794379401E-2</v>
-      </c>
-      <c r="H55">
-        <v>3.7112634409196602E-4</v>
-      </c>
-      <c r="I55">
-        <v>1.1924864386162699E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56">
-        <v>60</v>
-      </c>
-      <c r="B56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56">
-        <v>-8.7688013557283197E-3</v>
-      </c>
-      <c r="D56">
-        <v>-1.0125939196997599E-2</v>
-      </c>
-      <c r="E56" s="1">
-        <v>8.1944358940190098E-5</v>
-      </c>
-      <c r="F56">
-        <v>-2.2638300479612601E-3</v>
-      </c>
-      <c r="G56">
-        <v>1.4479568946042401E-3</v>
-      </c>
-      <c r="H56">
-        <v>-4.1350784948000797E-3</v>
-      </c>
-      <c r="I56">
-        <v>1.4600124965724401E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57">
-        <v>61</v>
-      </c>
-      <c r="B57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57">
-        <v>-2.4515883795127098E-2</v>
-      </c>
-      <c r="D57">
-        <v>6.9591815310474101E-3</v>
-      </c>
-      <c r="E57">
-        <v>6.1321089300902298E-2</v>
-      </c>
-      <c r="F57">
-        <v>1.16594063602914E-3</v>
-      </c>
-      <c r="G57">
-        <v>-5.8215834498845799E-2</v>
-      </c>
-      <c r="H57">
-        <v>-3.52859032271635E-3</v>
-      </c>
-      <c r="I57">
-        <v>-2.9987044460871599E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
-        <v>62</v>
-      </c>
-      <c r="B58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58">
-        <v>5.9054770094680404E-4</v>
-      </c>
-      <c r="D58">
-        <v>5.0973620687711999E-3</v>
-      </c>
-      <c r="E58">
-        <v>-4.3182291859706502E-3</v>
-      </c>
-      <c r="F58">
-        <v>3.0292557773384101E-2</v>
-      </c>
-      <c r="G58">
-        <v>8.1828996033968104E-3</v>
-      </c>
-      <c r="H58">
-        <v>-7.2433273857774004E-4</v>
-      </c>
-      <c r="I58">
-        <v>-1.2134037169797199E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59">
-        <v>63</v>
-      </c>
-      <c r="B59" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59">
-        <v>-1.13183895783398E-2</v>
-      </c>
-      <c r="D59">
-        <v>1.5657741010065201E-2</v>
-      </c>
-      <c r="E59">
-        <v>-3.3359347425839798E-2</v>
-      </c>
-      <c r="F59">
-        <v>2.4989362376893299E-2</v>
-      </c>
-      <c r="G59">
-        <v>1.0877834718348901E-2</v>
-      </c>
-      <c r="H59">
-        <v>-1.5991948344593399E-3</v>
-      </c>
-      <c r="I59">
-        <v>1.6384382274300498E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60">
-        <v>64</v>
-      </c>
-      <c r="B60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60">
-        <v>-1.02651273299449E-2</v>
-      </c>
-      <c r="D60">
-        <v>-1.07255152587107E-2</v>
-      </c>
-      <c r="E60">
-        <v>-2.7918572943005201E-2</v>
-      </c>
-      <c r="F60">
-        <v>-2.1470914610035399E-3</v>
-      </c>
-      <c r="G60">
-        <v>9.3654392751324603E-2</v>
-      </c>
-      <c r="H60">
-        <v>1.08337525049024E-2</v>
-      </c>
-      <c r="I60">
-        <v>-5.0391932973047802E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61">
-        <v>65</v>
-      </c>
-      <c r="B61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61">
-        <v>4.4842983755661097E-3</v>
-      </c>
-      <c r="D61">
-        <v>1.36200556285518E-2</v>
-      </c>
-      <c r="E61">
-        <v>-3.5262189562203401E-3</v>
-      </c>
-      <c r="F61">
-        <v>2.0717451937277E-2</v>
-      </c>
-      <c r="G61">
-        <v>-3.28059506887678E-2</v>
-      </c>
-      <c r="H61">
-        <v>4.0170197520477601E-3</v>
-      </c>
-      <c r="I61">
-        <v>2.8325823247590101E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62">
-        <v>66</v>
-      </c>
-      <c r="B62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62">
-        <v>-3.4655072915471298E-2</v>
-      </c>
-      <c r="D62">
-        <v>-1.51230496398626E-2</v>
-      </c>
-      <c r="E62">
-        <v>-3.4854815042851303E-2</v>
-      </c>
-      <c r="F62">
-        <v>9.6665769294060708E-3</v>
-      </c>
-      <c r="G62">
-        <v>7.5475452319844604E-3</v>
-      </c>
-      <c r="H62">
-        <v>1.06902686571118E-2</v>
-      </c>
-      <c r="I62">
-        <v>3.5782306491209802E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63">
-        <v>67</v>
-      </c>
-      <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63">
-        <v>-1.2964740424934401E-2</v>
-      </c>
-      <c r="D63">
-        <v>-2.9631637954220498E-3</v>
-      </c>
-      <c r="E63">
-        <v>8.3932180183834901E-3</v>
-      </c>
-      <c r="F63">
-        <v>-8.2626376666250795E-3</v>
-      </c>
-      <c r="G63" s="1">
-        <v>8.7120371941220098E-5</v>
-      </c>
-      <c r="H63">
-        <v>-3.3920425252328299E-3</v>
-      </c>
-      <c r="I63">
-        <v>6.7826992094749301E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64">
-        <v>68</v>
-      </c>
-      <c r="B64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64">
-        <v>-1.02684697218952E-2</v>
-      </c>
-      <c r="D64">
-        <v>1.1187277318678201E-2</v>
-      </c>
-      <c r="E64">
-        <v>-1.3673017084273599E-2</v>
-      </c>
-      <c r="F64">
-        <v>-3.7579624832622602E-3</v>
-      </c>
-      <c r="G64">
-        <v>9.1815274758466608E-3</v>
-      </c>
-      <c r="H64">
-        <v>-5.0691933958589598E-3</v>
-      </c>
-      <c r="I64">
-        <v>-6.47145665260226E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65">
-        <v>69</v>
-      </c>
-      <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65">
-        <v>-8.0830663346130108E-3</v>
-      </c>
-      <c r="D65">
-        <v>-1.38660098787453E-3</v>
-      </c>
-      <c r="E65">
-        <v>-3.0662673241934699E-2</v>
-      </c>
-      <c r="F65">
-        <v>7.1659555695760199E-3</v>
-      </c>
-      <c r="G65">
-        <v>6.4961913089013099E-2</v>
-      </c>
-      <c r="H65">
-        <v>-1.25289842088286E-2</v>
-      </c>
-      <c r="I65">
-        <v>-2.26780269720398E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66">
-        <v>70</v>
-      </c>
-      <c r="B66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66">
-        <v>-6.2978419691121397E-3</v>
-      </c>
-      <c r="D66">
-        <v>-5.7579925965794802E-3</v>
-      </c>
-      <c r="E66">
-        <v>-1.48571358910628E-2</v>
-      </c>
-      <c r="F66">
-        <v>-5.0874843789861998E-3</v>
-      </c>
-      <c r="G66">
-        <v>2.4129413465559999E-2</v>
-      </c>
-      <c r="H66">
-        <v>-1.28451618805192E-3</v>
-      </c>
-      <c r="I66">
-        <v>-9.2057647077117694E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67">
-        <v>71</v>
-      </c>
-      <c r="B67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67">
-        <v>9.3246207185297095E-2</v>
-      </c>
-      <c r="D67">
-        <v>3.84808244203248E-2</v>
-      </c>
-      <c r="E67">
-        <v>3.8272040987396803E-2</v>
-      </c>
-      <c r="F67">
-        <v>-3.44058280187622E-2</v>
-      </c>
-      <c r="G67">
-        <v>-0.14211151748586201</v>
-      </c>
-      <c r="H67">
-        <v>1.5423809240940899E-2</v>
-      </c>
-      <c r="I67">
-        <v>5.4370589483557198E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68">
-        <v>72</v>
-      </c>
-      <c r="B68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68">
-        <v>-8.6546716217100906E-3</v>
-      </c>
-      <c r="D68">
-        <v>1.10780040044039E-2</v>
-      </c>
-      <c r="E68">
-        <v>1.8495781619987502E-2</v>
-      </c>
-      <c r="F68">
-        <v>1.16345811510991E-2</v>
-      </c>
-      <c r="G68">
-        <v>-1.8410127530481699E-2</v>
-      </c>
-      <c r="H68">
-        <v>4.3168335003167298E-3</v>
-      </c>
-      <c r="I68">
-        <v>-5.8327308319431198E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69">
-        <v>73</v>
-      </c>
-      <c r="B69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69">
-        <v>-2.5861432889983799E-2</v>
-      </c>
-      <c r="D69">
-        <v>-1.13208705496458E-2</v>
-      </c>
-      <c r="E69">
-        <v>-4.5357192400008899E-2</v>
-      </c>
-      <c r="F69">
-        <v>-1.2521742233338099E-2</v>
-      </c>
-      <c r="G69">
-        <v>7.0691891601130694E-2</v>
-      </c>
-      <c r="H69">
-        <v>-6.6102660792071704E-3</v>
-      </c>
-      <c r="I69">
-        <v>-1.1549498821083099E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70">
-        <v>74</v>
-      </c>
-      <c r="B70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70">
-        <v>-1.5956237294610199E-2</v>
-      </c>
-      <c r="D70">
-        <v>-9.6833638465187392E-3</v>
-      </c>
-      <c r="E70">
-        <v>1.20022707761004E-2</v>
-      </c>
-      <c r="F70">
-        <v>1.04524214788469E-2</v>
-      </c>
-      <c r="G70">
-        <v>-4.5866108698883598E-3</v>
-      </c>
-      <c r="H70">
-        <v>-4.6987826057115498E-3</v>
-      </c>
-      <c r="I70">
-        <v>8.1807320166997106E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" hidden="1">
       <c r="A71">
         <v>75</v>
       </c>
@@ -50195,7 +51074,7 @@
         <v>-4.8551361229661498E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72">
         <v>76</v>
       </c>
@@ -50224,7 +51103,7 @@
         <v>-4.83137918714508E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73">
         <v>77</v>
       </c>
@@ -50253,7 +51132,7 @@
         <v>1.11068035653568E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1">
       <c r="A74">
         <v>78</v>
       </c>
@@ -50282,7 +51161,7 @@
         <v>-1.2134037169797199E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75">
         <v>79</v>
       </c>
@@ -50311,7 +51190,7 @@
         <v>8.7724772724618004E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76">
         <v>80</v>
       </c>
@@ -50340,7 +51219,7 @@
         <v>-5.6532584282007496E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1">
       <c r="A77">
         <v>81</v>
       </c>
@@ -50369,7 +51248,7 @@
         <v>9.0212186585172504E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78">
         <v>82</v>
       </c>
@@ -50398,7 +51277,7 @@
         <v>-2.2896877458476E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79">
         <v>83</v>
       </c>
@@ -50427,7 +51306,7 @@
         <v>6.0636667829220101E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" hidden="1">
       <c r="A80">
         <v>84</v>
       </c>
@@ -50456,7 +51335,7 @@
         <v>-2.93987434811178E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" hidden="1">
       <c r="A81">
         <v>85</v>
       </c>
@@ -50485,7 +51364,7 @@
         <v>-3.63212713215448E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82">
         <v>86</v>
       </c>
@@ -50514,7 +51393,7 @@
         <v>-1.65267225445475E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" hidden="1">
       <c r="A83">
         <v>87</v>
       </c>
@@ -50543,7 +51422,7 @@
         <v>-7.4126906814559902E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84">
         <v>88</v>
       </c>
@@ -50572,7 +51451,7 @@
         <v>-2.8994061492535598E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" hidden="1">
       <c r="A85">
         <v>89</v>
       </c>
@@ -50601,7 +51480,7 @@
         <v>-2.1189547521122301E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" hidden="1">
       <c r="A86">
         <v>90</v>
       </c>
@@ -50630,7 +51509,7 @@
         <v>3.9335765149433002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87">
         <v>91</v>
       </c>
@@ -50659,7 +51538,7 @@
         <v>2.76469747535905E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88">
         <v>92</v>
       </c>
@@ -50688,7 +51567,7 @@
         <v>1.5075857914398499E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" hidden="1">
       <c r="A89">
         <v>93</v>
       </c>
@@ -50717,7 +51596,7 @@
         <v>2.0972386471052901E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" hidden="1">
       <c r="A90">
         <v>94</v>
       </c>
@@ -50746,7 +51625,7 @@
         <v>-1.48230142906168E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" hidden="1">
       <c r="A91">
         <v>95</v>
       </c>
@@ -50775,7 +51654,7 @@
         <v>3.6302799203228402E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1">
       <c r="A92">
         <v>96</v>
       </c>
@@ -50804,7 +51683,7 @@
         <v>-9.76267882110005E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" hidden="1">
       <c r="A93">
         <v>97</v>
       </c>
@@ -50833,7 +51712,7 @@
         <v>9.2620607917615807E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" hidden="1">
       <c r="A94">
         <v>98</v>
       </c>
@@ -50862,7 +51741,7 @@
         <v>1.81513597737606E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" hidden="1">
       <c r="A95">
         <v>99</v>
       </c>
@@ -50891,7 +51770,7 @@
         <v>-1.5032056299543401E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" hidden="1">
       <c r="A96">
         <v>100</v>
       </c>
@@ -50920,7 +51799,7 @@
         <v>5.8507893041475304E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97">
         <v>101</v>
       </c>
@@ -50949,7 +51828,7 @@
         <v>-6.4852233314707302E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98">
         <v>102</v>
       </c>
@@ -50978,7 +51857,7 @@
         <v>-1.0913242047174599E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" hidden="1">
       <c r="A99">
         <v>103</v>
       </c>
@@ -51007,7 +51886,7 @@
         <v>-2.5441591646360302E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100">
         <v>104</v>
       </c>
@@ -51036,7 +51915,7 @@
         <v>2.4215034534914399E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" hidden="1">
       <c r="A101">
         <v>105</v>
       </c>
@@ -51065,7 +51944,7 @@
         <v>-4.6373039878786902E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102">
         <v>106</v>
       </c>
@@ -51094,7 +51973,7 @@
         <v>-2.1270263596411099E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" hidden="1">
       <c r="A103">
         <v>107</v>
       </c>
@@ -51123,7 +52002,7 @@
         <v>-2.2208065229307999E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" hidden="1">
       <c r="A104">
         <v>108</v>
       </c>
@@ -51152,7 +52031,7 @@
         <v>-8.6130564652841298E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105">
         <v>109</v>
       </c>
@@ -51166,7 +52045,7 @@
         <v>-4.0293914755835701E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" hidden="1">
       <c r="A106">
         <v>110</v>
       </c>
@@ -51195,7 +52074,7 @@
         <v>-4.2422844052600099E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107">
         <v>111</v>
       </c>
@@ -51224,7 +52103,7 @@
         <v>-1.0901107912963301E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108">
         <v>112</v>
       </c>
@@ -51253,7 +52132,7 @@
         <v>5.6683821512927102E-5</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" hidden="1">
       <c r="A109">
         <v>113</v>
       </c>
@@ -51282,7 +52161,7 @@
         <v>-1.0600358651637099E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" hidden="1">
       <c r="A110">
         <v>114</v>
       </c>
@@ -51311,7 +52190,7 @@
         <v>5.6683821512927102E-5</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" hidden="1">
       <c r="A111">
         <v>115</v>
       </c>
@@ -51340,7 +52219,7 @@
         <v>-2.3570780704102001E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" hidden="1">
       <c r="A112">
         <v>116</v>
       </c>
@@ -51369,7 +52248,7 @@
         <v>-4.3606796904416198E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1">
       <c r="A113">
         <v>117</v>
       </c>
@@ -51398,7 +52277,7 @@
         <v>4.3923018879980499E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" hidden="1">
       <c r="A114">
         <v>118</v>
       </c>
@@ -51427,7 +52306,7 @@
         <v>-5.0160329816906397E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" hidden="1">
       <c r="A115">
         <v>119</v>
       </c>
@@ -51456,7 +52335,7 @@
         <v>-2.0661160999165099E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" hidden="1">
       <c r="A116">
         <v>120</v>
       </c>
@@ -51485,7 +52364,7 @@
         <v>2.00477211599406E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" hidden="1">
       <c r="A117">
         <v>121</v>
       </c>
@@ -51515,7 +52394,22 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I2" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:I42">
+      <sortCondition ref="F2"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="C3:I117">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -51549,16 +52443,6 @@
     <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
       <formula>0.2</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
